--- a/1-exploratory-data-analysis/housing-descriptive-solution.xlsx
+++ b/1-exploratory-data-analysis/housing-descriptive-solution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\statistics-for-business-analytics\1-exploratory-data-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-excel-stats-for-analytics\1-exploratory-data-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344CEE55-DE86-410F-B4C5-E52A42FF148A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC756A6-DC08-4231-B566-0B6EBD63FC81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -22,10 +22,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">housing!$C$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">housing!$C$2:$C$547</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">housing!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">housing!$C$2:$C$547</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -743,10 +745,48 @@
   <cx:chart>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{B7C04450-32AA-4D5E-BFAB-2C6D6A9BCD5E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>lotsize</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{BC2DE315-F716-48BC-AAF3-F665C1B10A40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>lotsize</cx:v>
             </cx:txData>
           </cx:tx>
@@ -772,6 +812,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1319,7 +1399,598 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9557E5E-0234-4C1C-A2FC-893D6B033B2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2567940" y="182880"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1369,7 +2040,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
-              <a:ext cx="6941820" cy="3329940"/>
+              <a:ext cx="6941820" cy="3200400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -9655,7 +10326,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3739AD30-EC53-42F9-A689-05C311C0DB1A}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3739AD30-EC53-42F9-A689-05C311C0DB1A}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -10031,21 +10702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -10063,21 +10734,21 @@
   <dimension ref="A1:M547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C547"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="12" max="13" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="12" max="13" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -10118,7 +10789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10159,7 +10830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10200,7 +10871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10241,7 +10912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10282,7 +10953,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10323,7 +10994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10364,7 +11035,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10405,7 +11076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10446,7 +11117,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10487,7 +11158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10528,7 +11199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10569,7 +11240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10610,7 +11281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10651,7 +11322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10692,7 +11363,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10733,7 +11404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10774,7 +11445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10815,7 +11486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10856,7 +11527,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10897,7 +11568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10938,7 +11609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10979,7 +11650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11020,7 +11691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11061,7 +11732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11102,7 +11773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11143,7 +11814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11184,7 +11855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11225,7 +11896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11266,7 +11937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11307,7 +11978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11348,7 +12019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11389,7 +12060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11430,7 +12101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11471,7 +12142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11512,7 +12183,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11553,7 +12224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11594,7 +12265,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11635,7 +12306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11676,7 +12347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11717,7 +12388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11758,7 +12429,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11799,7 +12470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11840,7 +12511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11881,7 +12552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11922,7 +12593,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11963,7 +12634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -12004,7 +12675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -12045,7 +12716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -12086,7 +12757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -12127,7 +12798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -12168,7 +12839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -12209,7 +12880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -12250,7 +12921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -12291,7 +12962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -12332,7 +13003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -12373,7 +13044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -12414,7 +13085,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -12455,7 +13126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -12496,7 +13167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -12537,7 +13208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -12578,7 +13249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -12619,7 +13290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -12660,7 +13331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -12701,7 +13372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -12742,7 +13413,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -12783,7 +13454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -12824,7 +13495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -12865,7 +13536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12906,7 +13577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12947,7 +13618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12988,7 +13659,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -13029,7 +13700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -13070,7 +13741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -13111,7 +13782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -13152,7 +13823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -13193,7 +13864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -13234,7 +13905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -13275,7 +13946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -13316,7 +13987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -13357,7 +14028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13398,7 +14069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -13439,7 +14110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -13480,7 +14151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -13521,7 +14192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -13562,7 +14233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -13603,7 +14274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -13644,7 +14315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -13685,7 +14356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -13726,7 +14397,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -13767,7 +14438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -13808,7 +14479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -13849,7 +14520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -13890,7 +14561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -13931,7 +14602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -13972,7 +14643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14013,7 +14684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -14054,7 +14725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -14095,7 +14766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -14136,7 +14807,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -14177,7 +14848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -14218,7 +14889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -14259,7 +14930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -14300,7 +14971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -14341,7 +15012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -14382,7 +15053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -14423,7 +15094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -14464,7 +15135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -14505,7 +15176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -14546,7 +15217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -14587,7 +15258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -14628,7 +15299,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -14669,7 +15340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -14710,7 +15381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -14751,7 +15422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -14792,7 +15463,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -14833,7 +15504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -14874,7 +15545,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -14915,7 +15586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -14956,7 +15627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14997,7 +15668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -15038,7 +15709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -15079,7 +15750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -15120,7 +15791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -15161,7 +15832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -15202,7 +15873,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -15243,7 +15914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -15284,7 +15955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -15325,7 +15996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -15366,7 +16037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -15407,7 +16078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15448,7 +16119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15489,7 +16160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15530,7 +16201,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15571,7 +16242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15612,7 +16283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15653,7 +16324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15694,7 +16365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15735,7 +16406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15776,7 +16447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15817,7 +16488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -15858,7 +16529,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -15899,7 +16570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -15940,7 +16611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -15981,7 +16652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16022,7 +16693,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16063,7 +16734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16104,7 +16775,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16145,7 +16816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16186,7 +16857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -16227,7 +16898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -16268,7 +16939,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -16309,7 +16980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -16350,7 +17021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -16391,7 +17062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -16432,7 +17103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -16473,7 +17144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -16514,7 +17185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -16555,7 +17226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -16596,7 +17267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -16637,7 +17308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -16678,7 +17349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -16719,7 +17390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -16760,7 +17431,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -16801,7 +17472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -16842,7 +17513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -16883,7 +17554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -16924,7 +17595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -16965,7 +17636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -17006,7 +17677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -17047,7 +17718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -17088,7 +17759,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -17129,7 +17800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -17170,7 +17841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -17211,7 +17882,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -17252,7 +17923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -17293,7 +17964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -17334,7 +18005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -17375,7 +18046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -17416,7 +18087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -17457,7 +18128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -17498,7 +18169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -17539,7 +18210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -17580,7 +18251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -17621,7 +18292,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -17662,7 +18333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -17703,7 +18374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -17744,7 +18415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -17785,7 +18456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -17826,7 +18497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -17867,7 +18538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -17908,7 +18579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -17949,7 +18620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -17990,7 +18661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -18031,7 +18702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -18072,7 +18743,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -18113,7 +18784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -18154,7 +18825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -18195,7 +18866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -18236,7 +18907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -18277,7 +18948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -18318,7 +18989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -18359,7 +19030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -18400,7 +19071,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -18441,7 +19112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -18482,7 +19153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -18523,7 +19194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -18564,7 +19235,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -18605,7 +19276,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -18646,7 +19317,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -18687,7 +19358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -18728,7 +19399,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -18769,7 +19440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -18810,7 +19481,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -18851,7 +19522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -18892,7 +19563,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -18933,7 +19604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -18974,7 +19645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -19015,7 +19686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -19056,7 +19727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -19097,7 +19768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -19138,7 +19809,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -19179,7 +19850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -19220,7 +19891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -19261,7 +19932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -19302,7 +19973,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -19343,7 +20014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -19384,7 +20055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -19425,7 +20096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -19466,7 +20137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -19507,7 +20178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -19548,7 +20219,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -19589,7 +20260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -19630,7 +20301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -19671,7 +20342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -19712,7 +20383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -19753,7 +20424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -19794,7 +20465,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -19835,7 +20506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -19876,7 +20547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -19917,7 +20588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -19958,7 +20629,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -19999,7 +20670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -20040,7 +20711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -20081,7 +20752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -20122,7 +20793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -20163,7 +20834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -20204,7 +20875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -20245,7 +20916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -20286,7 +20957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -20327,7 +20998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -20368,7 +21039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -20409,7 +21080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -20450,7 +21121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -20491,7 +21162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -20532,7 +21203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -20573,7 +21244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -20614,7 +21285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -20655,7 +21326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -20696,7 +21367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -20737,7 +21408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -20778,7 +21449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -20819,7 +21490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -20860,7 +21531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -20901,7 +21572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -20942,7 +21613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -20983,7 +21654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -21024,7 +21695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -21065,7 +21736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -21106,7 +21777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -21147,7 +21818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -21188,7 +21859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -21229,7 +21900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -21270,7 +21941,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -21311,7 +21982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -21352,7 +22023,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -21393,7 +22064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -21434,7 +22105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -21475,7 +22146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -21516,7 +22187,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -21557,7 +22228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -21598,7 +22269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -21639,7 +22310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -21680,7 +22351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -21721,7 +22392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -21762,7 +22433,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -21803,7 +22474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -21844,7 +22515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -21885,7 +22556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -21926,7 +22597,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -21967,7 +22638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -22008,7 +22679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -22049,7 +22720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -22090,7 +22761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -22131,7 +22802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -22172,7 +22843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -22213,7 +22884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -22254,7 +22925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -22295,7 +22966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -22336,7 +23007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -22377,7 +23048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -22418,7 +23089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -22459,7 +23130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -22500,7 +23171,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -22541,7 +23212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -22582,7 +23253,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -22623,7 +23294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -22664,7 +23335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -22705,7 +23376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -22746,7 +23417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -22787,7 +23458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -22828,7 +23499,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -22869,7 +23540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -22910,7 +23581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -22951,7 +23622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -22992,7 +23663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -23033,7 +23704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -23074,7 +23745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -23115,7 +23786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -23156,7 +23827,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -23197,7 +23868,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -23238,7 +23909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -23279,7 +23950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -23320,7 +23991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -23361,7 +24032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -23402,7 +24073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -23443,7 +24114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -23484,7 +24155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -23525,7 +24196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -23566,7 +24237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -23607,7 +24278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -23648,7 +24319,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -23689,7 +24360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -23730,7 +24401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -23771,7 +24442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -23812,7 +24483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -23853,7 +24524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -23894,7 +24565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -23935,7 +24606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -23976,7 +24647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -24017,7 +24688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -24058,7 +24729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -24099,7 +24770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -24140,7 +24811,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -24181,7 +24852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -24222,7 +24893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -24263,7 +24934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -24304,7 +24975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -24345,7 +25016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -24386,7 +25057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -24427,7 +25098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -24468,7 +25139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -24509,7 +25180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -24550,7 +25221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -24591,7 +25262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -24632,7 +25303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -24673,7 +25344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -24714,7 +25385,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -24755,7 +25426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -24796,7 +25467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -24837,7 +25508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -24878,7 +25549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -24919,7 +25590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -24960,7 +25631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -25001,7 +25672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -25042,7 +25713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -25083,7 +25754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -25124,7 +25795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -25165,7 +25836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -25206,7 +25877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -25247,7 +25918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -25288,7 +25959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -25329,7 +26000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -25370,7 +26041,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -25411,7 +26082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -25452,7 +26123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -25493,7 +26164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -25534,7 +26205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -25575,7 +26246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -25616,7 +26287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -25657,7 +26328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -25698,7 +26369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -25739,7 +26410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -25780,7 +26451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -25821,7 +26492,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -25862,7 +26533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -25903,7 +26574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -25944,7 +26615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -25985,7 +26656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -26026,7 +26697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -26067,7 +26738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -26108,7 +26779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -26149,7 +26820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -26190,7 +26861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -26231,7 +26902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -26272,7 +26943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -26313,7 +26984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -26354,7 +27025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -26395,7 +27066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -26436,7 +27107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -26477,7 +27148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -26518,7 +27189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -26559,7 +27230,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -26600,7 +27271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -26641,7 +27312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -26682,7 +27353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -26723,7 +27394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -26764,7 +27435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -26805,7 +27476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -26846,7 +27517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -26887,7 +27558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -26928,7 +27599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -26969,7 +27640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -27010,7 +27681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -27051,7 +27722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -27092,7 +27763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -27133,7 +27804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -27174,7 +27845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -27215,7 +27886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -27256,7 +27927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -27297,7 +27968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -27338,7 +28009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -27379,7 +28050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -27420,7 +28091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -27461,7 +28132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -27502,7 +28173,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -27543,7 +28214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -27584,7 +28255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -27625,7 +28296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -27666,7 +28337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -27707,7 +28378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -27748,7 +28419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -27789,7 +28460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -27830,7 +28501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -27871,7 +28542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -27912,7 +28583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -27953,7 +28624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -27994,7 +28665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -28035,7 +28706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -28076,7 +28747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -28117,7 +28788,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -28158,7 +28829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -28199,7 +28870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -28240,7 +28911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -28281,7 +28952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -28322,7 +28993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -28363,7 +29034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -28404,7 +29075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -28445,7 +29116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -28486,7 +29157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -28527,7 +29198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -28568,7 +29239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -28609,7 +29280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -28650,7 +29321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -28691,7 +29362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -28732,7 +29403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -28773,7 +29444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -28814,7 +29485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -28855,7 +29526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -28896,7 +29567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -28937,7 +29608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -28978,7 +29649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -29019,7 +29690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -29060,7 +29731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -29101,7 +29772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -29142,7 +29813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -29183,7 +29854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -29224,7 +29895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -29265,7 +29936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -29306,7 +29977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -29347,7 +30018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -29388,7 +30059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -29429,7 +30100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -29470,7 +30141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -29511,7 +30182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -29552,7 +30223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -29593,7 +30264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -29634,7 +30305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -29675,7 +30346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -29716,7 +30387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -29757,7 +30428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -29798,7 +30469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -29839,7 +30510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -29880,7 +30551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -29921,7 +30592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -29962,7 +30633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -30003,7 +30674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -30044,7 +30715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -30085,7 +30756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -30126,7 +30797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -30167,7 +30838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -30208,7 +30879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -30249,7 +30920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -30290,7 +30961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -30331,7 +31002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -30372,7 +31043,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -30413,7 +31084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -30454,7 +31125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -30495,7 +31166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -30536,7 +31207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -30577,7 +31248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -30618,7 +31289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -30659,7 +31330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -30700,7 +31371,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -30741,7 +31412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -30782,7 +31453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -30823,7 +31494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -30864,7 +31535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -30905,7 +31576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -30946,7 +31617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -30987,7 +31658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -31028,7 +31699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -31069,7 +31740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -31110,7 +31781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -31151,7 +31822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -31192,7 +31863,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -31233,7 +31904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -31274,7 +31945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -31315,7 +31986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -31356,7 +32027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -31397,7 +32068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -31438,7 +32109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -31479,7 +32150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -31520,7 +32191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -31561,7 +32232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -31602,7 +32273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -31643,7 +32314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -31684,7 +32355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -31725,7 +32396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -31766,7 +32437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -31807,7 +32478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -31848,7 +32519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -31889,7 +32560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -31930,7 +32601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -31971,7 +32642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -32012,7 +32683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -32053,7 +32724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -32094,7 +32765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -32135,7 +32806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -32176,7 +32847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -32217,7 +32888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -32258,7 +32929,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -32299,7 +32970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -32340,7 +33011,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -32381,7 +33052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -32422,7 +33093,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -32463,7 +33134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -32516,17 +33187,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C05B6-B1FC-4499-89F8-3B0EF4C0637B}">
   <dimension ref="A3:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -32534,7 +33205,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -32542,7 +33213,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -32550,7 +33221,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -32568,26 +33239,26 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -32595,7 +33266,7 @@
         <v>5150.2655677655675</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -32603,7 +33274,7 @@
         <v>92.788627589064632</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -32611,7 +33282,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -32619,7 +33290,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
@@ -32627,7 +33298,7 @@
         <v>2168.1587252285572</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -32635,7 +33306,7 @@
         <v>4700912.2577847224</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -32643,7 +33314,7 @@
         <v>2.7625726744442067</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
@@ -32651,7 +33322,7 @@
         <v>1.3227579632815263</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
@@ -32659,7 +33330,7 @@
         <v>14550</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -32667,7 +33338,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
@@ -32675,7 +33346,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -32683,7 +33354,7 @@
         <v>2812045</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
@@ -32693,6 +33364,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32704,7 +33376,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
